--- a/検索1.xlsx
+++ b/検索1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/pythonアプリ/楽天/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Googleドライブ/github/self-search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE4E04F-3C48-8749-871E-4333B19AB1F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7C382B-75F9-B84B-BC18-0719A38951F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5960" yWindow="500" windowWidth="11000" windowHeight="11320" xr2:uid="{EDFA9FBA-4628-4D4B-9780-8BF0369E4FD4}"/>
   </bookViews>
@@ -25,13 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>プログラミング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>random.uniform</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -80,16 +76,6 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・マイクロソフトエッジの起動を確認</t>
-    <rPh sb="12" eb="14">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -623,96 +609,96 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -720,21 +706,21 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -742,30 +728,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -773,9 +751,7 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
